--- a/500all/speech_level/speeches_CHRG-114hhrg20214.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20214.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412469</t>
   </si>
   <si>
-    <t>Lou Barletta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barletta. The subcommittee will come to order. At our first hearing in the 114th Congress, I stated that my top emergency management priority was pursuing life-saving and cost-reducing disaster legislation and launching a public policy debate about the costs of disasters, in the terms of both the loss of property and human life.    We followed that hearing with several roundtables to help us understand what disasters cost this country, who pays those costs, and whether the problem is getting better or worse. Early last year, Ranking Member Carson and I introduced the FEMA Disaster Assistance Reform Act to call for the first comprehensive assessment of disaster costs and losses in over 20 years. We also wanted to reform several disaster assistance programs to make them more efficient and more effective. In February the House passed this FEMA [Federal Emergency Management Agency] legislation and we hope the Senate will take up H.R. 1471 and pass it soon.    The purpose of today's hearing is to discuss what we have learned so far and begin exploring potential solutions, particularly the principles that should be driving those solutions. While there are significant variations from year to year, we have found that disaster losses have grown considerably over the past three decades. As a result, the private sector and Government are spending an ever increasing amount of money on disasters. FEMA alone has obligated more than $178 billion since 1989 for over 1,300 Presidential disaster declarations.    In addition, the number of Federal disasters is going up.    Take a look at this graph that shows the steady increase in the number of Presidential disaster declarations since 1953.</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>412258</t>
   </si>
   <si>
-    <t>André Carson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman. Great words. Good morning, everyone, and welcome to today's hearing. While we have several prominent witnesses today, I would especially like to welcome a fellow Hoosier, Mr. Kevin Mickey, from the great Hoosier State. Mr. Mickey is the director of The Polis Center at Indiana University Purdue University Indianapolis. He is also the new chair of the Multihazard Mitigation Council at the National Institute of Building Sciences.    I look forward to my colleagues learning about the work being done in the great Hoosier State, particularly Indianapolis, to address rising disaster costs and losses, plus the latest report from the Multihazard Mitigation Council.    Mr. Mickey's national leadership and his local work are terrific examples of what Indianapolis is doing in the field of emergency management.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>412621</t>
   </si>
   <si>
-    <t>Carlos Curbelo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Curbelo. Chairman Barletta, Ranking Member Carson, members of the committee, thank you for the opportunity to testify before you today. This is my first time testifying before Congress, and I am glad to do it here, at the Committee on Transportation and Infrastructure's Subcommittee on Economic Development, Public Buildings, and Emergency Management, especially to discuss the important topic of disaster mitigation. I am honored to serve with all of you.    I would like to take the opportunity to share some thoughts on controlling the rising costs of the Federal Government when responding to disasters. I am a native of south Florida. And my good friend, Mr. Sires, who is working with me on this issue, is from New Jersey. We both have a deep and personal understanding of the devastating impacts of natural disasters on families and communities, and have seen firsthand what happens when homes, schools, and businesses aren't built to withstand the forces of nature. My family and I lived through Hurricane Andrew back in 1992. Fortunately, in my part of town, the damage was not extreme. But just a few miles south, where some of my family members lived, the devastation was horrifying.    Being a Floridian, I know that we have pretty strong State building codes already on the books. But at the national level it is time to fix the broken Federal system that is riddled with red tape, waste, fraud, and abuse. There is some great work already being done in the field of pre-disaster mitigation, and I would like to thank Chairman Barletta for being a strong leader on the issue.    Over the last 30 years we have seen a significant increase in federally declared natural disasters. But instead of taking additional steps to focus more on preparing for these disasters with enhanced building codes to make communities safer, the Federal Government typically waits until after a disaster occurs to react. This is incredibly dangerous and costly, especially with the increase in extreme weather events.    According to the Weather Channel, this hurricane season is supposed to be the most active since 2012. So this hearing and these issues are of the utmost importance, and very timely. For these reasons, my friend, Mr. Sires, who knows firsthand in New Jersey just how costly cleanup is after a disaster, has introduced legislation to work towards promoting stronger building codes at the national level by introducing H.R. 5177, the National Mitigation Investment Act of 2016.    This legislation works to alleviate losses to resident and commercial property following a natural disaster through preventative measures. It would provide incentives for the adoption and achievement in enforcing State building codes. We do this by allowing the President to increase mitigation assistance following a natural disaster by 4 percent, based off of the price of cleanup, but only if the State is enforcing building codes. This incentive can encourage States and localities to be proactive in future building, and also save a lot of funds in the long run.    The bill would also create a pilot program to award grants to State and local governments to encourage the adoption and enforcement of nationally recognized building codes. The goals of the grant program are to reduce disaster response and recovery costs by increasing resilience of buildings and reducing the amount of damage that occurs due to disaster and chronic flooding. Grant awardees will be required to accomplish these goals with non-Federal matching funds no less than 25 percent, and FEMA will be required to provide reports back to Congress on the success of the program.    Mr. Chairman, the residents of both Florida and New Jersey have had to rebuild communities after the devastating effects of catastrophic natural disasters. Returning to a life of normalcy is tremendously difficult, and can take many years. Furthermore, chronic tidal flooding poses a significant threat to real estate along our waterfront communities, especially in my south Florida district and the constituents that Mr. Sires represents, as well. This undoubtedly affects insurance rates, property values, clean water supplies, and general public welfare.    We believe that, through preemptive methods of incentivizing State and local governments to adhere to stronger building codes, we will alleviate the burdens and costs of the Federal Government after a natural disaster.    I thank my friend, Mr. Sires, for working with me on this legislation. I look forward to hearing from other experts on the issue of disaster mitigation in the next panel. This is a topic that requires perspectives from diverse geographical locations and multiple industries, and I appreciate being able to discuss my bill today. Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. I would really thank you, Mr. Chairman. I am not going to ask Mr. Curbelo questions, because we have been working on this for a while.    But I do want to thank you. You and I have firsthand experience on how devastating some of these catastrophes are, how it impacts life, how it impacts community, how it impacts the economy. And I really want to thank you for taking a strong lead on this. New Jersey got hit hard, Florida has been hit hard. And I just want you to know that I think this is the way to go, you know. Investing in mitigation, especially on a national level, where we can put some real strong codes has always been on my mind for many years.    So I just want to thank you for your hard work, and I look forward to continuing, and am proud to work with you on this legislation. Thank you very much.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -127,43 +115,28 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Nimmich</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nimmich. Good morning, Chairman Barletta, Ranking Member Carson, and the members of the subcommittee. As you know, my name is Joe Nimmich. I am the Deputy Administrator for the Federal Emergency Management Agency. Thank you for this opportunity to testify about the efforts FEMA is undertaking to reduce the rising cost of disasters.    With the continued trend towards urbanization, particularly in large cities located in high-risk areas, and the increasing severity of weather events, the Nation faces the potential for ever-increasing costs in responding to and recovering from disasters.    During a disaster response, FEMA's primary goal is to support the survivors through effective, efficient operations. Though FEMA has procedures in place to control costs during a response, one of the most effective ways to reduce disaster costs is to invest in community resilience before a disaster strikes, thereby reducing the physical and financial and particularly the human impacts of the event.    Preparedness and mitigation investments made before a disaster strikes significantly lessen the financial impacts on communities, States, and the Nation. One of the most effective mitigation tools is establishing stringent building codes and standards that ensure the property is built to insurable levels. Let me repeat that: Building codes and standards that ensure the property is built to insurable levels.    You will hear multiple times today that for every dollar invested in mitigation, a savings of $4 is achieved, due to the reduced impacts post-disaster. Mitigation programs reduce costs to the American public by an estimated $3.4 billion annually.    I have to move off my prepared comments to thank this committee and the Congress for taking action such as the post-Sandy legislation, where we were able to move the recovery costs forward based on assessments, but add the mitigation costs at that time so that the building back is better and reduces the future potential.    FEMA has made significant strides in the last few years, bringing the larger emergency management community together around a National Preparedness System. This provides communities a common approach to managing the risks, and provides communities the information, tools, and funding they need to make informed, data-driven decisions. This is just one step FEMA takes in promoting resilience.    The National Flood Insurance Program serves as the foundation for the national efforts to reduce loss of property from floods, the most costly and frequent disaster in the United States. The program identifies areas at risk for flooding, and makes flood insurance available to participating communities. Within the NFIP, the Community Rating System to incentivize communities to implement flood plain management practices, offering lower NFIP insurance premiums to participating communities.    Additionally, FEMA provides hazard mitigation assistance through programs such as Pre-disaster Mitigation, Flood Mitigation Assistance, Hazard Mitigation Grant Programs. These provide funding to communities to implement hazard mitigation measures pre- and post-disasters.    Programs such as the NFIP and the Community Rating System and hazard assistance invest in community resilience before the disaster strikes. This year FEMA went a step further, developing the disaster deductible concept, which encourages States, tribal, and territorial investment in resiliency mitigation programs. I strongly believe this program will be critical to any effort to reduce future disaster costs in a significant way.    As you have indicated, Congressman Barletta, Congress, the GAO [Government Accountability Office], and others have indicated that the Federal cost of disasters continues to rise. The solution of moving the threshold higher merely distributes the cost differently, but does not reduce the cost of potential disasters. With the disaster deductible concept, States would have to meet a predetermined financial commitment, similar to meeting an insurance deductible, as a condition of receiving Federal funds to rebuild damaged facilities and infrastructure.    Additionally, FEMA would provide credits for those States' investments in resiliency measures, such as adopting the building enhanced codes or funding preparedness and mitigation projects. Using these credits, a State's deductible could be reduced, thereby ensuring that communities have an incentive for investing in resilience.    During a 60-day comment period, FEMA received 150 responses. We are currently evaluating those to provide input from the advanced notice of proposed rulemaking to develop a proposed rulemaking for later this year. While preparedness and mitigation efforts can help us to reduce the costs in many areas, we must continue to acknowledge that demographic patterns are not something we can easily or readily influence, but we can take steps to account for these patterns by improving building codes, promoting preparedness.    FEMA strives to invest in our Nation's resilience and support disaster survivors, while being good stewards of the taxpayers' dollars. We continue to look for innovative ways to encourage risk reduction, promote preparedness and mitigation planning, and efficiently implement the recovery programs in order to reduce both the risks and cost to the American taxpayer.    Thank you for this opportunity today to testify, and I look forward to any questions the subcommittee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony, Deputy Administrator Nimmich.    Commissioner Clark, you may proceed.</t>
   </si>
   <si>
-    <t>Clark</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Chairman Barletta, Ranking Member Carson, and members of the subcommittee, for the opportunity to testify before you today on the cost of disasters. My name is Sallie Clark, and I am a county commissioner from El Paso County, Colorado, and also serve as the president of National Association of Counties, which represents all of America's 3,069 county governments.    Although all parts of Government play a role in disasters, counties often serve as the first line of defense when a disaster strikes, and are responsible to help our communities recover in the aftermath. Whether it is our emergency managers or sheriffs or 911 call centers, county hospitals, or public health departments, or the fact that we own the majority of our Nation's infrastructure, like roads, bridges, and airports, Federal policy decisions regarding disasters have a major impact on counties.    My county is no stranger to disasters, and the topic of this hearing is personal for me. Over the past several years, El Paso County and our surrounding areas have been devastated by a series of wildfires and flash floods that have upended our residents' lives, strained our local economy, and caused enough damage to prompt four Presidential disaster declarations over a 3-year period.    Our county, which long ago inspired Katharine Lee Bates to write the famous hymn, ``America the Beautiful,'' is now home to charred, barren hillsides. And the vegetation that once protected the area from stormwater runoff has disappeared, paving the way for dangerous flash floods.    But we have been working diligently to help our community recover and become more resilient in the future. Today I respectfully submit three principles for your consideration, as you continue to discuss Federal disaster spending.    First, Federal disaster spending should be viewed in the context of corresponding spending by State and local governments and the capacity of each level to fund disaster recovery efforts. Thousands of disasters strike our Nation each year, and the vast majority of long-term recovery costs are carried on the backs of State and local governments.    According to NACo's [National Association of Counties'] analysis of FEMA data, over the last 10 years 92 percent of counties across the Nation had at least one FEMA-declared disaster. And according to materials published by FEMA, the number of disasters successfully handled without request for Federal assistance is estimated at 3,500 to 3,700 annually, while only about 35 disasters per year received major declarations triggering Federal assistance between 1953 and 2014.    Furthermore, it is important to consider the respective fiscal capacity of Federal, State, and local governments when assessing contributions to our Nation's recovery from disasters. County governments in more than 40 States operate under restrictive revenue constraints imposed by State policies, including caps on property taxation that limit counties' ability to raise additional funds in the face of rising disaster costs. Local governments spend significantly on disasters. And changes to Federal disaster spending should not be assessed without consideration of this.    Second, decreases in Federal disaster spending should not come at the expense of State and local governments. The ultimate result of shifting Federal disaster costs to State and local governments will further deplete resources available for proactive disaster mitigation and resiliency work, resulting in even costlier disasters in the future.    FEMA's disaster deductible proposal presents some serious challenges for local governments. For example, El Paso County has spent many millions of dollars on mitigation projects in the last several years, as we have worked to recover from the wildfires and flash floods that have ravaged our community, including loss of life. But under the disaster deductible proposal, if the State of Colorado fails to sufficiently invest in mitigation efforts, public assistance funds could be withheld from our county at times when we are in most need of Federal assistance.    In this way we could be punished because of the inaction of an entity over which we have no control, despite our best efforts in mitigation. And this is just one of the many issues with this proposal that thus far have not been sufficiently addressed.    Because of this, FEMA has not given local governments confidence that a disaster deductible could be implemented without the significant risk that it would simply shift disaster costs from the Federal Government to State and local governments.    And finally, local disaster mitigation efforts bring down the overall cost of disasters, and should be supported by the Federal Government. Counties are uniquely positioned to implement mitigation efforts through our regulatory authorities and convening powers. Collaboration with the Federal Government helps counties better utilize our authorities and resources to mitigate the damage caused by disasters, increasing community resiliency, and decreasing impact and cost of future disasters for all levels of Government.    FEMA's Hazard Mitigation Grant Program and the other Federal programs enable counties to undertake large mitigation projects that may otherwise be out of their reach and have tremendous potential to drive down the cost of disasters for all levels of Government.    Mr. Chairman, Ranking Member Carson, and members of the subcommittee, I want to thank you again for inviting the local perspective on this important conversation. And I would welcome any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony, Ms. Clark.    Mr. Koon, you may proceed.</t>
   </si>
   <si>
-    <t>Koon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Koon. Thank you, Mr. Chairman, Ranking Member, and members of the subcommittee. My name is Bryan Koon, and I am the director of the Florida Division of Emergency Management. I am here on behalf of the National Emergency Management Association, which represents the State emergency management directors of the 50 States, territories, and the District of Columbia.    As the frequency, intensity, and variability of disasters increase, it is imperative to reduce risk wherever possible. This will ensure that our scarce personnel and financial resources are focused on life safety, and those aspects of the built environment where the risk cannot be reduced.    NEMA believes the following. Meaningful cost reduction should impact all levels of Government and the private sector, and not simply shift the cost between stakeholders. The Government practice of spending more money on disaster recovery than risk reduction must be changed. Hazard mitigation is a cost-effective effort with a documented return on investment. Mitigation reduces response costs and speeds recovery. Integrating mitigation meaningfully into recovery can be the catalyst for a communitywide focus on preparedness in the future.    Mitigation and resilience activities by State, local, and tribal governments should be recognized and incentivized by the Federal Government. In the long term, cost savings will be realized at all levels.    Much of the legal authority and responsibility for risk reduction decisions and activities resides at the local level, such as adoption and enforcement of building codes, zoning, and land use decisions. Local and tribal governments are critical partners in creating and sustaining disaster-resilient communities, and must be engaged in this conversation.    All stakeholders must utilize the best available science and predictive analysis tools to illustrate data-driven result on investment calculations. This can only be done when data is made available to all stakeholders, and when calculations are not done in a vacuum. We must leverage data to support our risk reduction priorities.    At the urging of Congress, FEMA has undertaken various efforts over the last decades to reduce cost and streamline operations. Reengineering of the Public Assistance Program is an excellent example of FEMA working to improve and maximize existing programs. While it is still too early to determine the effectiveness of the change, we are pleased with the effort, and urge that similar reforms be considered in other Federal programs.    Investment into the Emergency Management Assistance Compact, or EMAC, leverages Federal grant dollars that have already been invested in State and local emergency management programs. We must encourage greater investments, as States work with one another to reduce the need for Federal assistance, Federal administrative costs, property damage, and, most importantly, save lives.    In January, FEMA proposed a concept to create a State deductible for federally declared disasters. While there was no consensus opinion among the States, many expressed these common beliefs about any new proposal: the concept should drive real reduction in costs at all levels, and not merely a shift in costs; an appropriate amount of time must be given to ensure successful implementation, including internal education for FEMA, and training and guidance for States; States must also be given adequate time to ensure that any budgeting requirements are understood and acted upon by State legislatures; the proposal should utilize the opportunity to decrease administrative burden and associated costs; and the deductible cannot result in delayed assistance to those in need.    Regardless of what happens with the disaster deductible or any other current initiative, real progress will be achieved when all critical stakeholders are engaged. I would like to wrap up with a few thoughts on where we go next.    The Federal Government should continue to offer incentive programs that allow States to pursue innovative ways to strengthen their communities. We recommend FEMA and other agencies continually evaluate these programs to better understand the things that deter or prevent communities from fully leveraging these opportunities.    NEMA also recommends that a study to determine the true cost of disasters be conducted that captures not only those direct financial costs borne by FEMA, but also those costs, both direct and indirect, that are paid by other Federal agencies, State, local, and tribal governments, and the private sector.    Position FEMA as a partner in developing a more resilient Nation. FEMA's focus must transcend response and the agency must make advancements in all phases of the disaster cycle. Mitigation and long-term recovery are societal investments, not a cost.    Many of the functions that FEMA fulfills during a disaster could be done in a more cost-effective manner by using personnel deployed from tribal, State, or local government through EMAC. Invest in the infrastructure necessary to achieve this goal.    In addition to improving currently existing Federal programs, FEMA and others should recognize outstanding efforts done by State and local entities and encourage their adoption, nationwide. While many stakeholders approach the issue of increasing disaster costs differently, we all have a common goal. As Government officials, private-sector business leaders, and community members, we all have a role to play in reducing the cost and impact of disasters.    I appreciate the opportunity to testify before you today and stand ready to answer any questions the committee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony, Mr. Koon.    Mr. Nelson, you may proceed.</t>
   </si>
   <si>
-    <t>Nelson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nelson. Good morning. Chairman Barletta, Ranking Member Carson, and members of the subcommittee, thank you for holding this important hearing today to examine solutions to controlling the increased costs of natural disasters. My name is Eric Nelson, and I am senior vice president of catastrophe risk management at Travelers Insurance. I am testifying today on behalf of the BuildStrong Coalition, a group of businesses and consumer organizations dedicated to reducing human and economic losses from natural disasters.    As one of the largest property casualty companies in the U.S., Travelers provides a unique private-sector expertise that can add value to the Federal Government's mission to manage its own risk and losses from natural disasters.    I would first like to thank Chairman Barletta and the members of the subcommittee for their continued leadership in conducting a series of roundtables on this topic beginning in January of last year. I begin today by outlining three major takeaways from those roundtables. And before I do that--that is--the main question we want to ask ourselves is what actionable steps can Congress take to mitigate risk, lessen the impact of families and communities across America, and reduce Federal losses from natural disasters?    The first takeaway from the roundtables is that, by almost every measure, Federal disaster spending is increasing on an unsustainable path. Dr. Erwann Michel-Kerjan from Wharton showed that Federal cost-share of natural disasters exploded over the last 60 years, increasing from roughly 6 percent in 1955 to 77 percent in 2015.    The second takeaway from the roundtable is that the States, communities, and individuals have little incentive to undertake loss prevention measures before a disaster occurs. We are going to hear in a minute the Multihazard Mitigation Council conducted a study documenting how every dollar spent on mitigation saves the Nation approximately $4 in post-disaster relief costs. A new study by Wharton indicated that a $1 increase in the Individual Assistance grant program reduces disaster insurance demand by $6. These findings represent compelling evidence that the Federal Government is inadvertently fostering short-sighted behavior throughout State and local governments and with individual homeowners.    The third point from the roundtable is that eliminating disincentives and replacing them with the appropriate incentives for mitigation can benefit all parties involved. The Federal Government would benefit by lowering its cost share for disaster assistance. States would benefit by alleviating the budget constraint caused by disasters, and easing their dependency on Federal aid. Families would benefit by reducing personal disaster costs and protecting loved ones. Communities and local economies would benefit by enabling citizens and businesses to recover more quickly after an event.    While the benefits are clear, the question remains: What specific actions can Congress take?    The National Mitigation Investment Strategy is based on the latest science and engineering research from world-class research institutions, such as the Insurance Institute for Business and Home Safety, or IBHS. IBHS and other research institutions conduct research on building performance standards and simulated disaster conditions and controlled environments. Research from these institutions demonstrates that statewide adoption and enforcement of building codes can reduce long-term risk. Studies conducted in the wake of major disasters also support this finding.    Another fact. According to IBHS, at least 25 percent of all businesses that close down for 24 hours or more during a disaster never reopen. That is staggering stats. And think about the businesses and the jobs.    Another stat we looked at was the LSU [Louisiana State University] Hurricane Center estimated that stronger building codes would have reduced wind damage in Hurricane Katrina by 80 percent, or $8 billion.    So thank you for your leadership, Congressman Curbelo and Congressman Sires. I am pleased to report that the core principles from this report have been turned into legislation and introduced in H.R. 5177, the National Mitigation Investment Act. This act provides a powerful incentive for States to adopt and enforce statewide building codes and authorize a first-of-its-kind competitive grant program to improve building code enforcement.    Further, the legislation includes a provision authorized by the chairman in H.R. 1471, authorizing Congress to look at the first comprehensive assessment of Federal disaster spending by Congress in over 20 years. Congressional leaders, policy experts, and GAO all agree strong building codes, and enhanced pre-disaster mitigation would provide life and cost-saving benefits.    I urge you and your colleagues to support the National Mitigation Investment Act in order to rein in Federal Government's exploding costs. Chairman Barletta, Ranking Member Carson, and the subcommittee, I applaud you for your efforts, and thank you for taking up this issue. I would be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony, Mr. Nelson.    Mr. Mickey, please proceed.</t>
-  </si>
-  <si>
-    <t>Mickey</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mickey. Chairman Barletta, Ranking Member Carson, and members of the subcommittee, thank you for the opportunity to provide testimony on approaches for reducing the cost of natural disasters. My name is Kevin Mickey, director of professional development and geospatial education at The Polis Center at Indiana University Purdue University Indianapolis, which has the mission of linking academic and community expertise to create strong and resilient communities.    I am here today as the chairman of the Multihazard Mitigation Council of the National Institute of Building Sciences, introducing a new and unique approach we have proposed for the incentivization of private property owners throughout the United States.    The United States Congress established the National Institute of Building Sciences in 1974 to serve as an authoritative source for both the public and private sectors to improve the built environment. To achieve its mission, the institute has established 18 councils that engage building industry experts in examining and developing tools, technologies, and practices to meet identified needs. The institute and its Multihazard Mitigation Council, or MMC, and Council on Finance, Insurance, and Real Estate [CFIRE] have been particularly focused on opportunities to advance resilience and encourage the most cost-effective approaches to reducing the impacts of natural, as well as man-made, disasters.    As you are aware, there have been numerous efforts at developing increased building codes and standards, mitigation programs, scientific studies of best practices, and definitions of resilience. And yet we continue to find that the penetration of hazard mitigation into the private sector is spotty and woefully incomplete.    Now, this is not to say that these efforts have not been effective. As has already been pointed out, a 2005 MMC study showed that implemented mitigation strategies do indeed save on the order of $4 for every $1 spent. And currently, the institute is discussing with Federal agencies and the private sector a project to revisit this 2005 study and expand it to consider all Federal programs, the role of model building codes, and the benefits that mitigation provides to the private sector.    Recognizing the significant benefits achieved through proactive investments in mitigation, the limited funding available to support disaster mitigation response and recovery, as well as the anticipated increase in disaster events, a new approach is necessary.    The most cost-effective manner to achieve resilience is through a holistic and integrated set of public, private, and hybrid programs that capture opportunities available through investment and mortgages and equity real estate, insurance, finance, tax incentives and credits, grants, regulations, and enhanced building codes and their application. This focus on leveraging private-public sector opportunities to induce corrective action is called incentivization.    The incentivization approach calls for input, consensus, leadership, and action from a broad spectrum of stakeholders representing the financial, regulatory, and economic processes that need to be developed and coordinated to make incentivization part of the Nation's economic fabric. Participants should include those who offer incentives such as insurance and finance-related companies, lenders, and foundations, as well as forward-thinking communities and Government agencies and important decisionmakers that most definitely need to include homeowners, businesses, and utilities.    The MMC and CFIRE jointly published and developed a white paper entitled, ``Developing Pre-Disaster Resilience Based on Public and Private Incentivization,'' which provides a catalog of existing programs for different hazards that private and public sector stakeholders can evaluate and then modify or expand to develop incentives. The specifics of incentivization need to be tailored for new and existing construction, using optimal resilience measures beyond current law or custom, and to account for hazard risk, locality, business size, and the value of resilient strategies. One size cannot fit all.    Incentivizing the means to achieve resilience before disasters occur focuses on monetizing the benefits for incorporating risk mitigation practices in the ordinary course of business. Participating stakeholders need sufficient confidence that using incentives to achieve resilience will justify investments, underwriting, and loan and grant programs. The private sector will not undertake resilience investments just because it is sensible, but because it is economically prudent.    While my written testimony describes many opportunities for congressional action, I offer a few specific recommendations here.    First, every Federal dollar associated with construction, community development, and infrastructure must include a requirement that the latest building codes be met or exceeded.    Second, Congress and Federal agencies should examine all programs, particularly grant-making programs, to identify opportunities to support resilience.    And finally, Federal investments and programs should require investment in mitigation.    Thank you for the opportunity to testify before you today. Please consider The Polis Center, as well as the National Institute of Building Sciences as resources as you look to address challenges related to the built environment.    I look forward to your questions.</t>
@@ -760,11 +733,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -786,11 +757,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -812,11 +781,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -838,11 +805,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -864,11 +829,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -890,11 +853,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -914,13 +875,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -942,11 +901,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -968,11 +925,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -994,11 +949,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1018,13 +971,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1046,11 +997,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1070,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1098,11 +1045,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1122,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1150,11 +1093,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1176,11 +1117,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1200,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1228,11 +1165,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1252,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1280,11 +1213,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1304,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>43</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1332,11 +1261,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1356,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1384,11 +1309,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1408,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1436,11 +1357,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1460,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1488,11 +1405,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1512,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1540,11 +1453,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1564,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1592,11 +1501,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1616,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1644,11 +1549,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1668,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1694,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1720,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" t="s">
-        <v>43</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1746,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1772,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1798,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1826,11 +1717,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1850,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1876,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1902,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1928,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1954,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1980,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2006,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2034,11 +1909,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2058,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2084,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2110,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2136,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2162,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2190,11 +2053,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2214,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2242,11 +2101,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2266,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" t="s">
-        <v>46</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2294,11 +2149,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2318,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2346,11 +2197,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2370,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2398,11 +2245,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2422,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" t="s">
-        <v>43</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2450,11 +2293,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2474,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>46</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2502,11 +2341,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2526,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2554,11 +2389,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2578,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2604,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2630,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2656,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2682,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2708,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" t="s">
-        <v>43</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2734,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2760,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" t="s">
-        <v>46</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2786,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2812,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2838,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2866,11 +2677,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2890,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2916,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2942,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2968,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
-      </c>
-      <c r="G87" t="s">
-        <v>43</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2994,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" t="s">
-        <v>43</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3020,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
-      </c>
-      <c r="G89" t="s">
-        <v>46</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3046,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G90" t="s">
-        <v>46</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3074,11 +2869,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3100,11 +2893,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20214.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20214.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412469</t>
   </si>
   <si>
+    <t>Barletta</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barletta. The subcommittee will come to order. At our first hearing in the 114th Congress, I stated that my top emergency management priority was pursuing life-saving and cost-reducing disaster legislation and launching a public policy debate about the costs of disasters, in the terms of both the loss of property and human life.    We followed that hearing with several roundtables to help us understand what disasters cost this country, who pays those costs, and whether the problem is getting better or worse. Early last year, Ranking Member Carson and I introduced the FEMA Disaster Assistance Reform Act to call for the first comprehensive assessment of disaster costs and losses in over 20 years. We also wanted to reform several disaster assistance programs to make them more efficient and more effective. In February the House passed this FEMA [Federal Emergency Management Agency] legislation and we hope the Senate will take up H.R. 1471 and pass it soon.    The purpose of today's hearing is to discuss what we have learned so far and begin exploring potential solutions, particularly the principles that should be driving those solutions. While there are significant variations from year to year, we have found that disaster losses have grown considerably over the past three decades. As a result, the private sector and Government are spending an ever increasing amount of money on disasters. FEMA alone has obligated more than $178 billion since 1989 for over 1,300 Presidential disaster declarations.    In addition, the number of Federal disasters is going up.    Take a look at this graph that shows the steady increase in the number of Presidential disaster declarations since 1953.</t>
   </si>
   <si>
@@ -73,6 +82,12 @@
     <t>412258</t>
   </si>
   <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman. Great words. Good morning, everyone, and welcome to today's hearing. While we have several prominent witnesses today, I would especially like to welcome a fellow Hoosier, Mr. Kevin Mickey, from the great Hoosier State. Mr. Mickey is the director of The Polis Center at Indiana University Purdue University Indianapolis. He is also the new chair of the Multihazard Mitigation Council at the National Institute of Building Sciences.    I look forward to my colleagues learning about the work being done in the great Hoosier State, particularly Indianapolis, to address rising disaster costs and losses, plus the latest report from the Multihazard Mitigation Council.    Mr. Mickey's national leadership and his local work are terrific examples of what Indianapolis is doing in the field of emergency management.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -88,6 +103,12 @@
     <t>412621</t>
   </si>
   <si>
+    <t>Curbelo</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Curbelo. Chairman Barletta, Ranking Member Carson, members of the committee, thank you for the opportunity to testify before you today. This is my first time testifying before Congress, and I am glad to do it here, at the Committee on Transportation and Infrastructure's Subcommittee on Economic Development, Public Buildings, and Emergency Management, especially to discuss the important topic of disaster mitigation. I am honored to serve with all of you.    I would like to take the opportunity to share some thoughts on controlling the rising costs of the Federal Government when responding to disasters. I am a native of south Florida. And my good friend, Mr. Sires, who is working with me on this issue, is from New Jersey. We both have a deep and personal understanding of the devastating impacts of natural disasters on families and communities, and have seen firsthand what happens when homes, schools, and businesses aren't built to withstand the forces of nature. My family and I lived through Hurricane Andrew back in 1992. Fortunately, in my part of town, the damage was not extreme. But just a few miles south, where some of my family members lived, the devastation was horrifying.    Being a Floridian, I know that we have pretty strong State building codes already on the books. But at the national level it is time to fix the broken Federal system that is riddled with red tape, waste, fraud, and abuse. There is some great work already being done in the field of pre-disaster mitigation, and I would like to thank Chairman Barletta for being a strong leader on the issue.    Over the last 30 years we have seen a significant increase in federally declared natural disasters. But instead of taking additional steps to focus more on preparing for these disasters with enhanced building codes to make communities safer, the Federal Government typically waits until after a disaster occurs to react. This is incredibly dangerous and costly, especially with the increase in extreme weather events.    According to the Weather Channel, this hurricane season is supposed to be the most active since 2012. So this hearing and these issues are of the utmost importance, and very timely. For these reasons, my friend, Mr. Sires, who knows firsthand in New Jersey just how costly cleanup is after a disaster, has introduced legislation to work towards promoting stronger building codes at the national level by introducing H.R. 5177, the National Mitigation Investment Act of 2016.    This legislation works to alleviate losses to resident and commercial property following a natural disaster through preventative measures. It would provide incentives for the adoption and achievement in enforcing State building codes. We do this by allowing the President to increase mitigation assistance following a natural disaster by 4 percent, based off of the price of cleanup, but only if the State is enforcing building codes. This incentive can encourage States and localities to be proactive in future building, and also save a lot of funds in the long run.    The bill would also create a pilot program to award grants to State and local governments to encourage the adoption and enforcement of nationally recognized building codes. The goals of the grant program are to reduce disaster response and recovery costs by increasing resilience of buildings and reducing the amount of damage that occurs due to disaster and chronic flooding. Grant awardees will be required to accomplish these goals with non-Federal matching funds no less than 25 percent, and FEMA will be required to provide reports back to Congress on the success of the program.    Mr. Chairman, the residents of both Florida and New Jersey have had to rebuild communities after the devastating effects of catastrophic natural disasters. Returning to a life of normalcy is tremendously difficult, and can take many years. Furthermore, chronic tidal flooding poses a significant threat to real estate along our waterfront communities, especially in my south Florida district and the constituents that Mr. Sires represents, as well. This undoubtedly affects insurance rates, property values, clean water supplies, and general public welfare.    We believe that, through preemptive methods of incentivizing State and local governments to adhere to stronger building codes, we will alleviate the burdens and costs of the Federal Government after a natural disaster.    I thank my friend, Mr. Sires, for working with me on this legislation. I look forward to hearing from other experts on the issue of disaster mitigation in the next panel. This is a topic that requires perspectives from diverse geographical locations and multiple industries, and I appreciate being able to discuss my bill today. Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
@@ -97,6 +118,12 @@
     <t>412186</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. I would really thank you, Mr. Chairman. I am not going to ask Mr. Curbelo questions, because we have been working on this for a while.    But I do want to thank you. You and I have firsthand experience on how devastating some of these catastrophes are, how it impacts life, how it impacts community, how it impacts the economy. And I really want to thank you for taking a strong lead on this. New Jersey got hit hard, Florida has been hit hard. And I just want you to know that I think this is the way to go, you know. Investing in mitigation, especially on a national level, where we can put some real strong codes has always been on my mind for many years.    So I just want to thank you for your hard work, and I look forward to continuing, and am proud to work with you on this legislation. Thank you very much.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -115,28 +142,43 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Nimmich</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nimmich. Good morning, Chairman Barletta, Ranking Member Carson, and the members of the subcommittee. As you know, my name is Joe Nimmich. I am the Deputy Administrator for the Federal Emergency Management Agency. Thank you for this opportunity to testify about the efforts FEMA is undertaking to reduce the rising cost of disasters.    With the continued trend towards urbanization, particularly in large cities located in high-risk areas, and the increasing severity of weather events, the Nation faces the potential for ever-increasing costs in responding to and recovering from disasters.    During a disaster response, FEMA's primary goal is to support the survivors through effective, efficient operations. Though FEMA has procedures in place to control costs during a response, one of the most effective ways to reduce disaster costs is to invest in community resilience before a disaster strikes, thereby reducing the physical and financial and particularly the human impacts of the event.    Preparedness and mitigation investments made before a disaster strikes significantly lessen the financial impacts on communities, States, and the Nation. One of the most effective mitigation tools is establishing stringent building codes and standards that ensure the property is built to insurable levels. Let me repeat that: Building codes and standards that ensure the property is built to insurable levels.    You will hear multiple times today that for every dollar invested in mitigation, a savings of $4 is achieved, due to the reduced impacts post-disaster. Mitigation programs reduce costs to the American public by an estimated $3.4 billion annually.    I have to move off my prepared comments to thank this committee and the Congress for taking action such as the post-Sandy legislation, where we were able to move the recovery costs forward based on assessments, but add the mitigation costs at that time so that the building back is better and reduces the future potential.    FEMA has made significant strides in the last few years, bringing the larger emergency management community together around a National Preparedness System. This provides communities a common approach to managing the risks, and provides communities the information, tools, and funding they need to make informed, data-driven decisions. This is just one step FEMA takes in promoting resilience.    The National Flood Insurance Program serves as the foundation for the national efforts to reduce loss of property from floods, the most costly and frequent disaster in the United States. The program identifies areas at risk for flooding, and makes flood insurance available to participating communities. Within the NFIP, the Community Rating System to incentivize communities to implement flood plain management practices, offering lower NFIP insurance premiums to participating communities.    Additionally, FEMA provides hazard mitigation assistance through programs such as Pre-disaster Mitigation, Flood Mitigation Assistance, Hazard Mitigation Grant Programs. These provide funding to communities to implement hazard mitigation measures pre- and post-disasters.    Programs such as the NFIP and the Community Rating System and hazard assistance invest in community resilience before the disaster strikes. This year FEMA went a step further, developing the disaster deductible concept, which encourages States, tribal, and territorial investment in resiliency mitigation programs. I strongly believe this program will be critical to any effort to reduce future disaster costs in a significant way.    As you have indicated, Congressman Barletta, Congress, the GAO [Government Accountability Office], and others have indicated that the Federal cost of disasters continues to rise. The solution of moving the threshold higher merely distributes the cost differently, but does not reduce the cost of potential disasters. With the disaster deductible concept, States would have to meet a predetermined financial commitment, similar to meeting an insurance deductible, as a condition of receiving Federal funds to rebuild damaged facilities and infrastructure.    Additionally, FEMA would provide credits for those States' investments in resiliency measures, such as adopting the building enhanced codes or funding preparedness and mitigation projects. Using these credits, a State's deductible could be reduced, thereby ensuring that communities have an incentive for investing in resilience.    During a 60-day comment period, FEMA received 150 responses. We are currently evaluating those to provide input from the advanced notice of proposed rulemaking to develop a proposed rulemaking for later this year. While preparedness and mitigation efforts can help us to reduce the costs in many areas, we must continue to acknowledge that demographic patterns are not something we can easily or readily influence, but we can take steps to account for these patterns by improving building codes, promoting preparedness.    FEMA strives to invest in our Nation's resilience and support disaster survivors, while being good stewards of the taxpayers' dollars. We continue to look for innovative ways to encourage risk reduction, promote preparedness and mitigation planning, and efficiently implement the recovery programs in order to reduce both the risks and cost to the American taxpayer.    Thank you for this opportunity today to testify, and I look forward to any questions the subcommittee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony, Deputy Administrator Nimmich.    Commissioner Clark, you may proceed.</t>
   </si>
   <si>
+    <t>Clark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Chairman Barletta, Ranking Member Carson, and members of the subcommittee, for the opportunity to testify before you today on the cost of disasters. My name is Sallie Clark, and I am a county commissioner from El Paso County, Colorado, and also serve as the president of National Association of Counties, which represents all of America's 3,069 county governments.    Although all parts of Government play a role in disasters, counties often serve as the first line of defense when a disaster strikes, and are responsible to help our communities recover in the aftermath. Whether it is our emergency managers or sheriffs or 911 call centers, county hospitals, or public health departments, or the fact that we own the majority of our Nation's infrastructure, like roads, bridges, and airports, Federal policy decisions regarding disasters have a major impact on counties.    My county is no stranger to disasters, and the topic of this hearing is personal for me. Over the past several years, El Paso County and our surrounding areas have been devastated by a series of wildfires and flash floods that have upended our residents' lives, strained our local economy, and caused enough damage to prompt four Presidential disaster declarations over a 3-year period.    Our county, which long ago inspired Katharine Lee Bates to write the famous hymn, ``America the Beautiful,'' is now home to charred, barren hillsides. And the vegetation that once protected the area from stormwater runoff has disappeared, paving the way for dangerous flash floods.    But we have been working diligently to help our community recover and become more resilient in the future. Today I respectfully submit three principles for your consideration, as you continue to discuss Federal disaster spending.    First, Federal disaster spending should be viewed in the context of corresponding spending by State and local governments and the capacity of each level to fund disaster recovery efforts. Thousands of disasters strike our Nation each year, and the vast majority of long-term recovery costs are carried on the backs of State and local governments.    According to NACo's [National Association of Counties'] analysis of FEMA data, over the last 10 years 92 percent of counties across the Nation had at least one FEMA-declared disaster. And according to materials published by FEMA, the number of disasters successfully handled without request for Federal assistance is estimated at 3,500 to 3,700 annually, while only about 35 disasters per year received major declarations triggering Federal assistance between 1953 and 2014.    Furthermore, it is important to consider the respective fiscal capacity of Federal, State, and local governments when assessing contributions to our Nation's recovery from disasters. County governments in more than 40 States operate under restrictive revenue constraints imposed by State policies, including caps on property taxation that limit counties' ability to raise additional funds in the face of rising disaster costs. Local governments spend significantly on disasters. And changes to Federal disaster spending should not be assessed without consideration of this.    Second, decreases in Federal disaster spending should not come at the expense of State and local governments. The ultimate result of shifting Federal disaster costs to State and local governments will further deplete resources available for proactive disaster mitigation and resiliency work, resulting in even costlier disasters in the future.    FEMA's disaster deductible proposal presents some serious challenges for local governments. For example, El Paso County has spent many millions of dollars on mitigation projects in the last several years, as we have worked to recover from the wildfires and flash floods that have ravaged our community, including loss of life. But under the disaster deductible proposal, if the State of Colorado fails to sufficiently invest in mitigation efforts, public assistance funds could be withheld from our county at times when we are in most need of Federal assistance.    In this way we could be punished because of the inaction of an entity over which we have no control, despite our best efforts in mitigation. And this is just one of the many issues with this proposal that thus far have not been sufficiently addressed.    Because of this, FEMA has not given local governments confidence that a disaster deductible could be implemented without the significant risk that it would simply shift disaster costs from the Federal Government to State and local governments.    And finally, local disaster mitigation efforts bring down the overall cost of disasters, and should be supported by the Federal Government. Counties are uniquely positioned to implement mitigation efforts through our regulatory authorities and convening powers. Collaboration with the Federal Government helps counties better utilize our authorities and resources to mitigate the damage caused by disasters, increasing community resiliency, and decreasing impact and cost of future disasters for all levels of Government.    FEMA's Hazard Mitigation Grant Program and the other Federal programs enable counties to undertake large mitigation projects that may otherwise be out of their reach and have tremendous potential to drive down the cost of disasters for all levels of Government.    Mr. Chairman, Ranking Member Carson, and members of the subcommittee, I want to thank you again for inviting the local perspective on this important conversation. And I would welcome any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony, Ms. Clark.    Mr. Koon, you may proceed.</t>
   </si>
   <si>
+    <t>Koon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Koon. Thank you, Mr. Chairman, Ranking Member, and members of the subcommittee. My name is Bryan Koon, and I am the director of the Florida Division of Emergency Management. I am here on behalf of the National Emergency Management Association, which represents the State emergency management directors of the 50 States, territories, and the District of Columbia.    As the frequency, intensity, and variability of disasters increase, it is imperative to reduce risk wherever possible. This will ensure that our scarce personnel and financial resources are focused on life safety, and those aspects of the built environment where the risk cannot be reduced.    NEMA believes the following. Meaningful cost reduction should impact all levels of Government and the private sector, and not simply shift the cost between stakeholders. The Government practice of spending more money on disaster recovery than risk reduction must be changed. Hazard mitigation is a cost-effective effort with a documented return on investment. Mitigation reduces response costs and speeds recovery. Integrating mitigation meaningfully into recovery can be the catalyst for a communitywide focus on preparedness in the future.    Mitigation and resilience activities by State, local, and tribal governments should be recognized and incentivized by the Federal Government. In the long term, cost savings will be realized at all levels.    Much of the legal authority and responsibility for risk reduction decisions and activities resides at the local level, such as adoption and enforcement of building codes, zoning, and land use decisions. Local and tribal governments are critical partners in creating and sustaining disaster-resilient communities, and must be engaged in this conversation.    All stakeholders must utilize the best available science and predictive analysis tools to illustrate data-driven result on investment calculations. This can only be done when data is made available to all stakeholders, and when calculations are not done in a vacuum. We must leverage data to support our risk reduction priorities.    At the urging of Congress, FEMA has undertaken various efforts over the last decades to reduce cost and streamline operations. Reengineering of the Public Assistance Program is an excellent example of FEMA working to improve and maximize existing programs. While it is still too early to determine the effectiveness of the change, we are pleased with the effort, and urge that similar reforms be considered in other Federal programs.    Investment into the Emergency Management Assistance Compact, or EMAC, leverages Federal grant dollars that have already been invested in State and local emergency management programs. We must encourage greater investments, as States work with one another to reduce the need for Federal assistance, Federal administrative costs, property damage, and, most importantly, save lives.    In January, FEMA proposed a concept to create a State deductible for federally declared disasters. While there was no consensus opinion among the States, many expressed these common beliefs about any new proposal: the concept should drive real reduction in costs at all levels, and not merely a shift in costs; an appropriate amount of time must be given to ensure successful implementation, including internal education for FEMA, and training and guidance for States; States must also be given adequate time to ensure that any budgeting requirements are understood and acted upon by State legislatures; the proposal should utilize the opportunity to decrease administrative burden and associated costs; and the deductible cannot result in delayed assistance to those in need.    Regardless of what happens with the disaster deductible or any other current initiative, real progress will be achieved when all critical stakeholders are engaged. I would like to wrap up with a few thoughts on where we go next.    The Federal Government should continue to offer incentive programs that allow States to pursue innovative ways to strengthen their communities. We recommend FEMA and other agencies continually evaluate these programs to better understand the things that deter or prevent communities from fully leveraging these opportunities.    NEMA also recommends that a study to determine the true cost of disasters be conducted that captures not only those direct financial costs borne by FEMA, but also those costs, both direct and indirect, that are paid by other Federal agencies, State, local, and tribal governments, and the private sector.    Position FEMA as a partner in developing a more resilient Nation. FEMA's focus must transcend response and the agency must make advancements in all phases of the disaster cycle. Mitigation and long-term recovery are societal investments, not a cost.    Many of the functions that FEMA fulfills during a disaster could be done in a more cost-effective manner by using personnel deployed from tribal, State, or local government through EMAC. Invest in the infrastructure necessary to achieve this goal.    In addition to improving currently existing Federal programs, FEMA and others should recognize outstanding efforts done by State and local entities and encourage their adoption, nationwide. While many stakeholders approach the issue of increasing disaster costs differently, we all have a common goal. As Government officials, private-sector business leaders, and community members, we all have a role to play in reducing the cost and impact of disasters.    I appreciate the opportunity to testify before you today and stand ready to answer any questions the committee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony, Mr. Koon.    Mr. Nelson, you may proceed.</t>
   </si>
   <si>
+    <t>Nelson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nelson. Good morning. Chairman Barletta, Ranking Member Carson, and members of the subcommittee, thank you for holding this important hearing today to examine solutions to controlling the increased costs of natural disasters. My name is Eric Nelson, and I am senior vice president of catastrophe risk management at Travelers Insurance. I am testifying today on behalf of the BuildStrong Coalition, a group of businesses and consumer organizations dedicated to reducing human and economic losses from natural disasters.    As one of the largest property casualty companies in the U.S., Travelers provides a unique private-sector expertise that can add value to the Federal Government's mission to manage its own risk and losses from natural disasters.    I would first like to thank Chairman Barletta and the members of the subcommittee for their continued leadership in conducting a series of roundtables on this topic beginning in January of last year. I begin today by outlining three major takeaways from those roundtables. And before I do that--that is--the main question we want to ask ourselves is what actionable steps can Congress take to mitigate risk, lessen the impact of families and communities across America, and reduce Federal losses from natural disasters?    The first takeaway from the roundtables is that, by almost every measure, Federal disaster spending is increasing on an unsustainable path. Dr. Erwann Michel-Kerjan from Wharton showed that Federal cost-share of natural disasters exploded over the last 60 years, increasing from roughly 6 percent in 1955 to 77 percent in 2015.    The second takeaway from the roundtable is that the States, communities, and individuals have little incentive to undertake loss prevention measures before a disaster occurs. We are going to hear in a minute the Multihazard Mitigation Council conducted a study documenting how every dollar spent on mitigation saves the Nation approximately $4 in post-disaster relief costs. A new study by Wharton indicated that a $1 increase in the Individual Assistance grant program reduces disaster insurance demand by $6. These findings represent compelling evidence that the Federal Government is inadvertently fostering short-sighted behavior throughout State and local governments and with individual homeowners.    The third point from the roundtable is that eliminating disincentives and replacing them with the appropriate incentives for mitigation can benefit all parties involved. The Federal Government would benefit by lowering its cost share for disaster assistance. States would benefit by alleviating the budget constraint caused by disasters, and easing their dependency on Federal aid. Families would benefit by reducing personal disaster costs and protecting loved ones. Communities and local economies would benefit by enabling citizens and businesses to recover more quickly after an event.    While the benefits are clear, the question remains: What specific actions can Congress take?    The National Mitigation Investment Strategy is based on the latest science and engineering research from world-class research institutions, such as the Insurance Institute for Business and Home Safety, or IBHS. IBHS and other research institutions conduct research on building performance standards and simulated disaster conditions and controlled environments. Research from these institutions demonstrates that statewide adoption and enforcement of building codes can reduce long-term risk. Studies conducted in the wake of major disasters also support this finding.    Another fact. According to IBHS, at least 25 percent of all businesses that close down for 24 hours or more during a disaster never reopen. That is staggering stats. And think about the businesses and the jobs.    Another stat we looked at was the LSU [Louisiana State University] Hurricane Center estimated that stronger building codes would have reduced wind damage in Hurricane Katrina by 80 percent, or $8 billion.    So thank you for your leadership, Congressman Curbelo and Congressman Sires. I am pleased to report that the core principles from this report have been turned into legislation and introduced in H.R. 5177, the National Mitigation Investment Act. This act provides a powerful incentive for States to adopt and enforce statewide building codes and authorize a first-of-its-kind competitive grant program to improve building code enforcement.    Further, the legislation includes a provision authorized by the chairman in H.R. 1471, authorizing Congress to look at the first comprehensive assessment of Federal disaster spending by Congress in over 20 years. Congressional leaders, policy experts, and GAO all agree strong building codes, and enhanced pre-disaster mitigation would provide life and cost-saving benefits.    I urge you and your colleagues to support the National Mitigation Investment Act in order to rein in Federal Government's exploding costs. Chairman Barletta, Ranking Member Carson, and the subcommittee, I applaud you for your efforts, and thank you for taking up this issue. I would be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony, Mr. Nelson.    Mr. Mickey, please proceed.</t>
+  </si>
+  <si>
+    <t>Mickey</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mickey. Chairman Barletta, Ranking Member Carson, and members of the subcommittee, thank you for the opportunity to provide testimony on approaches for reducing the cost of natural disasters. My name is Kevin Mickey, director of professional development and geospatial education at The Polis Center at Indiana University Purdue University Indianapolis, which has the mission of linking academic and community expertise to create strong and resilient communities.    I am here today as the chairman of the Multihazard Mitigation Council of the National Institute of Building Sciences, introducing a new and unique approach we have proposed for the incentivization of private property owners throughout the United States.    The United States Congress established the National Institute of Building Sciences in 1974 to serve as an authoritative source for both the public and private sectors to improve the built environment. To achieve its mission, the institute has established 18 councils that engage building industry experts in examining and developing tools, technologies, and practices to meet identified needs. The institute and its Multihazard Mitigation Council, or MMC, and Council on Finance, Insurance, and Real Estate [CFIRE] have been particularly focused on opportunities to advance resilience and encourage the most cost-effective approaches to reducing the impacts of natural, as well as man-made, disasters.    As you are aware, there have been numerous efforts at developing increased building codes and standards, mitigation programs, scientific studies of best practices, and definitions of resilience. And yet we continue to find that the penetration of hazard mitigation into the private sector is spotty and woefully incomplete.    Now, this is not to say that these efforts have not been effective. As has already been pointed out, a 2005 MMC study showed that implemented mitigation strategies do indeed save on the order of $4 for every $1 spent. And currently, the institute is discussing with Federal agencies and the private sector a project to revisit this 2005 study and expand it to consider all Federal programs, the role of model building codes, and the benefits that mitigation provides to the private sector.    Recognizing the significant benefits achieved through proactive investments in mitigation, the limited funding available to support disaster mitigation response and recovery, as well as the anticipated increase in disaster events, a new approach is necessary.    The most cost-effective manner to achieve resilience is through a holistic and integrated set of public, private, and hybrid programs that capture opportunities available through investment and mortgages and equity real estate, insurance, finance, tax incentives and credits, grants, regulations, and enhanced building codes and their application. This focus on leveraging private-public sector opportunities to induce corrective action is called incentivization.    The incentivization approach calls for input, consensus, leadership, and action from a broad spectrum of stakeholders representing the financial, regulatory, and economic processes that need to be developed and coordinated to make incentivization part of the Nation's economic fabric. Participants should include those who offer incentives such as insurance and finance-related companies, lenders, and foundations, as well as forward-thinking communities and Government agencies and important decisionmakers that most definitely need to include homeowners, businesses, and utilities.    The MMC and CFIRE jointly published and developed a white paper entitled, ``Developing Pre-Disaster Resilience Based on Public and Private Incentivization,'' which provides a catalog of existing programs for different hazards that private and public sector stakeholders can evaluate and then modify or expand to develop incentives. The specifics of incentivization need to be tailored for new and existing construction, using optimal resilience measures beyond current law or custom, and to account for hazard risk, locality, business size, and the value of resilient strategies. One size cannot fit all.    Incentivizing the means to achieve resilience before disasters occur focuses on monetizing the benefits for incorporating risk mitigation practices in the ordinary course of business. Participating stakeholders need sufficient confidence that using incentives to achieve resilience will justify investments, underwriting, and loan and grant programs. The private sector will not undertake resilience investments just because it is sensible, but because it is economically prudent.    While my written testimony describes many opportunities for congressional action, I offer a few specific recommendations here.    First, every Federal dollar associated with construction, community development, and infrastructure must include a requirement that the latest building codes be met or exceeded.    Second, Congress and Federal agencies should examine all programs, particularly grant-making programs, to identify opportunities to support resilience.    And finally, Federal investments and programs should require investment in mitigation.    Thank you for the opportunity to testify before you today. Please consider The Polis Center, as well as the National Institute of Building Sciences as resources as you look to address challenges related to the built environment.    I look forward to your questions.</t>
@@ -683,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +733,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,2189 +755,2569 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
+      <c r="G16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H16" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G54" t="s">
+        <v>34</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G56" t="s">
+        <v>34</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G60" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G62" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s">
+        <v>51</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s">
+        <v>54</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G77" t="s">
+        <v>48</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G79" t="s">
+        <v>51</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G81" t="s">
+        <v>54</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G84" t="s">
+        <v>42</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G85" t="s">
+        <v>42</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G86" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
+        <v>48</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G88" t="s">
+        <v>48</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G89" t="s">
+        <v>51</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G90" t="s">
+        <v>51</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20214.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20214.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412469</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Barletta</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>412258</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Carson</t>
   </si>
   <si>
@@ -101,6 +110,9 @@
   </si>
   <si>
     <t>412621</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Curbelo</t>
@@ -725,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,7 +745,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,2566 +770,2764 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" t="s">
-        <v>42</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" t="s">
-        <v>42</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" t="s">
-        <v>42</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" t="s">
-        <v>42</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
-      </c>
-      <c r="G58" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
-      </c>
-      <c r="G60" t="s">
-        <v>51</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" t="s">
-        <v>42</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" t="s">
-        <v>45</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G66" t="s">
-        <v>48</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
-      </c>
-      <c r="G68" t="s">
-        <v>51</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>55</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" t="s">
-        <v>54</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>58</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" t="s">
-        <v>45</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
-      </c>
-      <c r="G75" t="s">
-        <v>45</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" t="s">
-        <v>48</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
-      </c>
-      <c r="G79" t="s">
-        <v>51</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>55</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" t="s">
-        <v>54</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>58</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
-      </c>
-      <c r="G84" t="s">
-        <v>42</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
-      </c>
-      <c r="G85" t="s">
-        <v>42</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
-      </c>
-      <c r="G86" t="s">
-        <v>42</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
-      </c>
-      <c r="G87" t="s">
-        <v>48</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>52</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88" t="s">
-        <v>48</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>52</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
-      </c>
-      <c r="G89" t="s">
-        <v>51</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>55</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
-      </c>
-      <c r="G90" t="s">
-        <v>51</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>55</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>120</v>
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
